--- a/Results/LocalHadoop.xlsx
+++ b/Results/LocalHadoop.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin Yang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx960203/Desktop/Code/559/project_cc/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -165,18 +165,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,11 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -486,17 +487,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A38" sqref="A36:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -555,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -613,65 +614,65 @@
         <v>7037.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>604652</v>
+        <v>712968</v>
       </c>
       <c r="D4">
-        <v>586312</v>
+        <v>618476</v>
       </c>
       <c r="E4">
-        <v>699192</v>
+        <v>482580</v>
       </c>
       <c r="F4">
-        <v>566692</v>
+        <v>598880</v>
       </c>
       <c r="G4">
-        <v>599560</v>
+        <v>643504</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I31" si="0">STDEV(C4:G4)</f>
-        <v>51286.692433807817</v>
+        <f>STDEV(C4:G4)</f>
+        <v>83886.929737593731</v>
       </c>
       <c r="L4">
-        <v>7517</v>
+        <v>7520</v>
       </c>
       <c r="M4">
-        <v>6511</v>
+        <v>7522</v>
       </c>
       <c r="N4">
-        <v>6502</v>
+        <v>6549</v>
       </c>
       <c r="O4">
-        <v>6498</v>
+        <v>6510</v>
       </c>
       <c r="P4">
-        <v>6523</v>
+        <v>6524</v>
       </c>
       <c r="Q4">
+        <v>7550</v>
+      </c>
+      <c r="R4">
+        <v>6515</v>
+      </c>
+      <c r="S4">
         <v>6497</v>
       </c>
-      <c r="R4">
-        <v>6591</v>
-      </c>
-      <c r="S4">
-        <v>6512</v>
-      </c>
       <c r="T4">
-        <v>6562</v>
+        <v>7587</v>
       </c>
       <c r="U4">
-        <v>6504</v>
+        <v>7508</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W33" si="1">AVERAGE(L4:U4)</f>
-        <v>6621.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <f>AVERAGE(L4:U4)</f>
+        <v>7028.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -691,7 +692,7 @@
         <v>598420</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>STDEV(C5:G5)</f>
         <v>77675.438001983537</v>
       </c>
       <c r="L5">
@@ -725,69 +726,69 @@
         <v>7535</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(L5:U5)</f>
         <v>6833.9</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>712968</v>
+        <v>604652</v>
       </c>
       <c r="D6">
-        <v>618476</v>
+        <v>586312</v>
       </c>
       <c r="E6">
-        <v>482580</v>
+        <v>699192</v>
       </c>
       <c r="F6">
-        <v>598880</v>
+        <v>566692</v>
       </c>
       <c r="G6">
-        <v>643504</v>
+        <v>599560</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>83886.929737593731</v>
+        <f t="shared" ref="I6:I31" si="0">STDEV(C6:G6)</f>
+        <v>51286.692433807817</v>
       </c>
       <c r="L6">
-        <v>7520</v>
+        <v>7517</v>
       </c>
       <c r="M6">
-        <v>7522</v>
+        <v>6511</v>
       </c>
       <c r="N6">
-        <v>6549</v>
+        <v>6502</v>
       </c>
       <c r="O6">
-        <v>6510</v>
+        <v>6498</v>
       </c>
       <c r="P6">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="Q6">
-        <v>7550</v>
+        <v>6497</v>
       </c>
       <c r="R6">
-        <v>6515</v>
+        <v>6591</v>
       </c>
       <c r="S6">
-        <v>6497</v>
+        <v>6512</v>
       </c>
       <c r="T6">
-        <v>7587</v>
+        <v>6562</v>
       </c>
       <c r="U6">
-        <v>7508</v>
+        <v>6504</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
-        <v>7028.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <f t="shared" ref="W6:W33" si="1">AVERAGE(L6:U6)</f>
+        <v>6621.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -830,7 +831,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -888,239 +889,239 @@
         <v>13629.4</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>552476</v>
+      </c>
+      <c r="D9">
+        <v>718660</v>
+      </c>
+      <c r="E9">
+        <v>689572</v>
+      </c>
+      <c r="F9">
+        <v>499764</v>
+      </c>
+      <c r="G9">
+        <v>595936</v>
+      </c>
+      <c r="I9">
+        <f>STDEV(C9:G9)</f>
+        <v>91909.287696075568</v>
+      </c>
+      <c r="L9">
+        <v>12546</v>
+      </c>
+      <c r="M9">
+        <v>12521</v>
+      </c>
+      <c r="N9">
+        <v>12519</v>
+      </c>
+      <c r="O9">
+        <v>12505</v>
+      </c>
+      <c r="P9">
+        <v>12579</v>
+      </c>
+      <c r="Q9">
+        <v>12505</v>
+      </c>
+      <c r="R9">
+        <v>12533</v>
+      </c>
+      <c r="S9">
+        <v>12543</v>
+      </c>
+      <c r="T9">
+        <v>12545</v>
+      </c>
+      <c r="U9">
+        <v>13590</v>
+      </c>
+      <c r="W9">
+        <f>AVERAGE(L9:U9)</f>
+        <v>12638.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>564092</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>620096</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>693136</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>693468</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>485616</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>88813.205891916703</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>7502</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>8529</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>7501</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>7534</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>7531</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>8570</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <v>7583</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>8548</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>7516</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>7521</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f t="shared" si="1"/>
         <v>7833.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>552476</v>
-      </c>
-      <c r="D10">
-        <v>718660</v>
-      </c>
-      <c r="E10">
-        <v>689572</v>
-      </c>
-      <c r="F10">
-        <v>499764</v>
-      </c>
-      <c r="G10">
-        <v>595936</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>91909.287696075568</v>
-      </c>
-      <c r="L10">
-        <v>12546</v>
-      </c>
-      <c r="M10">
-        <v>12521</v>
-      </c>
-      <c r="N10">
-        <v>12519</v>
-      </c>
-      <c r="O10">
-        <v>12505</v>
-      </c>
-      <c r="P10">
-        <v>12579</v>
-      </c>
-      <c r="Q10">
-        <v>12505</v>
-      </c>
-      <c r="R10">
-        <v>12533</v>
-      </c>
-      <c r="S10">
-        <v>12543</v>
-      </c>
-      <c r="T10">
-        <v>12545</v>
-      </c>
-      <c r="U10">
-        <v>13590</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>12638.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>566448</v>
+      </c>
+      <c r="D11">
+        <v>531928</v>
+      </c>
+      <c r="E11">
+        <v>529056</v>
+      </c>
+      <c r="F11">
+        <v>719144</v>
+      </c>
+      <c r="G11">
+        <v>709832</v>
+      </c>
+      <c r="I11">
+        <f>STDEV(C11:G11)</f>
+        <v>95413.014692965167</v>
+      </c>
+      <c r="L11">
+        <v>7536</v>
+      </c>
+      <c r="M11">
+        <v>7532</v>
+      </c>
+      <c r="N11">
+        <v>7531</v>
+      </c>
+      <c r="O11">
+        <v>7533</v>
+      </c>
+      <c r="P11">
+        <v>7529</v>
+      </c>
+      <c r="Q11">
+        <v>7531</v>
+      </c>
+      <c r="R11">
+        <v>7524</v>
+      </c>
+      <c r="S11">
+        <v>7587</v>
+      </c>
+      <c r="T11">
+        <v>7539</v>
+      </c>
+      <c r="U11">
+        <v>7526</v>
+      </c>
+      <c r="W11">
+        <f>AVERAGE(L11:U11)</f>
+        <v>7536.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>583868</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>597844</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>583220</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>674376</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>617100</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>37862.531093417405</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>6515</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>7545</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>6533</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>6503</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>6531</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>6523</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <v>6513</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <v>6525</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <v>6564</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>6537</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f t="shared" si="1"/>
         <v>6628.9</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>566448</v>
-      </c>
-      <c r="D12">
-        <v>531928</v>
-      </c>
-      <c r="E12">
-        <v>529056</v>
-      </c>
-      <c r="F12">
-        <v>719144</v>
-      </c>
-      <c r="G12">
-        <v>709832</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>95413.014692965167</v>
-      </c>
-      <c r="L12">
-        <v>7536</v>
-      </c>
-      <c r="M12">
-        <v>7532</v>
-      </c>
-      <c r="N12">
-        <v>7531</v>
-      </c>
-      <c r="O12">
-        <v>7533</v>
-      </c>
-      <c r="P12">
-        <v>7529</v>
-      </c>
-      <c r="Q12">
-        <v>7531</v>
-      </c>
-      <c r="R12">
-        <v>7524</v>
-      </c>
-      <c r="S12">
-        <v>7587</v>
-      </c>
-      <c r="T12">
-        <v>7539</v>
-      </c>
-      <c r="U12">
-        <v>7526</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>7536.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>6534.3</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>6730.6</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>9219.7999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>7527.7</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1431,7 @@
       <c r="G20">
         <v>1921652</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <f t="shared" si="0"/>
         <v>360417.70323057106</v>
       </c>
@@ -1464,186 +1465,186 @@
       <c r="U20">
         <v>20518</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <f t="shared" si="1"/>
         <v>19822.900000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2291506</v>
+      </c>
+      <c r="D21">
+        <v>1853627</v>
+      </c>
+      <c r="E21">
+        <v>1453864</v>
+      </c>
+      <c r="F21">
+        <v>1937247</v>
+      </c>
+      <c r="G21">
+        <v>1408421</v>
+      </c>
+      <c r="I21" s="1">
+        <f>STDEV(C21:G21)</f>
+        <v>365999.5196260509</v>
+      </c>
+      <c r="L21">
+        <v>20514</v>
+      </c>
+      <c r="M21">
+        <v>19488</v>
+      </c>
+      <c r="N21">
+        <v>19527</v>
+      </c>
+      <c r="O21">
+        <v>19536</v>
+      </c>
+      <c r="P21">
+        <v>19548</v>
+      </c>
+      <c r="Q21">
+        <v>19525</v>
+      </c>
+      <c r="R21">
+        <v>19545</v>
+      </c>
+      <c r="S21">
+        <v>20506</v>
+      </c>
+      <c r="T21">
+        <v>19534</v>
+      </c>
+      <c r="U21">
+        <v>19516</v>
+      </c>
+      <c r="W21" s="1">
+        <f>AVERAGE(L21:U21)</f>
+        <v>19723.900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1640684</v>
+      </c>
+      <c r="D22">
+        <v>2658021</v>
+      </c>
+      <c r="E22">
+        <v>1575444</v>
+      </c>
+      <c r="F22">
+        <v>1586143</v>
+      </c>
+      <c r="G22">
+        <v>1484373</v>
+      </c>
+      <c r="I22" s="1">
+        <f>STDEV(C22:G22)</f>
+        <v>489067.95247848739</v>
+      </c>
+      <c r="L22">
+        <v>19559</v>
+      </c>
+      <c r="M22">
+        <v>20504</v>
+      </c>
+      <c r="N22">
+        <v>19508</v>
+      </c>
+      <c r="O22">
+        <v>19520</v>
+      </c>
+      <c r="P22">
+        <v>19515</v>
+      </c>
+      <c r="Q22">
+        <v>19551</v>
+      </c>
+      <c r="R22">
+        <v>19536</v>
+      </c>
+      <c r="S22">
+        <v>20560</v>
+      </c>
+      <c r="T22">
+        <v>19490</v>
+      </c>
+      <c r="U22">
+        <v>19515</v>
+      </c>
+      <c r="W22" s="1">
+        <f>AVERAGE(L22:U22)</f>
+        <v>19725.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>1565224</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>1788705</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>1797383</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>2344860</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>1448493</v>
       </c>
-      <c r="I21">
+      <c r="I23" s="1">
         <f t="shared" si="0"/>
         <v>344627.11518901121</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>20540</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <v>20508</v>
       </c>
-      <c r="N21">
+      <c r="N23">
         <v>19533</v>
       </c>
-      <c r="O21">
+      <c r="O23">
         <v>19495</v>
       </c>
-      <c r="P21">
+      <c r="P23">
         <v>19517</v>
       </c>
-      <c r="Q21">
+      <c r="Q23">
         <v>20546</v>
       </c>
-      <c r="R21">
+      <c r="R23">
         <v>20514</v>
       </c>
-      <c r="S21">
+      <c r="S23">
         <v>19509</v>
       </c>
-      <c r="T21">
+      <c r="T23">
         <v>20530</v>
       </c>
-      <c r="U21">
+      <c r="U23">
         <v>19536</v>
       </c>
-      <c r="W21">
+      <c r="W23" s="1">
         <f t="shared" si="1"/>
         <v>20022.8</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1640684</v>
-      </c>
-      <c r="D22">
-        <v>2658021</v>
-      </c>
-      <c r="E22">
-        <v>1575444</v>
-      </c>
-      <c r="F22">
-        <v>1586143</v>
-      </c>
-      <c r="G22">
-        <v>1484373</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>489067.95247848739</v>
-      </c>
-      <c r="L22">
-        <v>19559</v>
-      </c>
-      <c r="M22">
-        <v>20504</v>
-      </c>
-      <c r="N22">
-        <v>19508</v>
-      </c>
-      <c r="O22">
-        <v>19520</v>
-      </c>
-      <c r="P22">
-        <v>19515</v>
-      </c>
-      <c r="Q22">
-        <v>19551</v>
-      </c>
-      <c r="R22">
-        <v>19536</v>
-      </c>
-      <c r="S22">
-        <v>20560</v>
-      </c>
-      <c r="T22">
-        <v>19490</v>
-      </c>
-      <c r="U22">
-        <v>19515</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>19725.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>2291506</v>
-      </c>
-      <c r="D23">
-        <v>1853627</v>
-      </c>
-      <c r="E23">
-        <v>1453864</v>
-      </c>
-      <c r="F23">
-        <v>1937247</v>
-      </c>
-      <c r="G23">
-        <v>1408421</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>365999.5196260509</v>
-      </c>
-      <c r="L23">
-        <v>20514</v>
-      </c>
-      <c r="M23">
-        <v>19488</v>
-      </c>
-      <c r="N23">
-        <v>19527</v>
-      </c>
-      <c r="O23">
-        <v>19536</v>
-      </c>
-      <c r="P23">
-        <v>19548</v>
-      </c>
-      <c r="Q23">
-        <v>19525</v>
-      </c>
-      <c r="R23">
-        <v>19545</v>
-      </c>
-      <c r="S23">
-        <v>20506</v>
-      </c>
-      <c r="T23">
-        <v>19534</v>
-      </c>
-      <c r="U23">
-        <v>19516</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>19723.900000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1663,7 @@
       <c r="G24">
         <v>1838809</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <f t="shared" si="0"/>
         <v>79297.908998283179</v>
       </c>
@@ -1672,12 +1673,12 @@
       <c r="M24">
         <v>123603</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <f t="shared" si="1"/>
         <v>124119.5</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1697,7 @@
       <c r="G25">
         <v>1503018</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <f t="shared" si="0"/>
         <v>387515.72268102877</v>
       </c>
@@ -1730,244 +1731,244 @@
       <c r="U25">
         <v>38587</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <f t="shared" si="1"/>
         <v>37775.4</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1967057</v>
+      </c>
+      <c r="D26">
+        <v>2066794</v>
+      </c>
+      <c r="E26">
+        <v>1417481</v>
+      </c>
+      <c r="F26">
+        <v>1546399</v>
+      </c>
+      <c r="G26">
+        <v>1946934</v>
+      </c>
+      <c r="I26" s="1">
+        <f>STDEV(C26:G26)</f>
+        <v>287531.97220396204</v>
+      </c>
+      <c r="L26">
+        <v>33571</v>
+      </c>
+      <c r="M26">
+        <v>33564</v>
+      </c>
+      <c r="N26">
+        <v>33551</v>
+      </c>
+      <c r="O26">
+        <v>33561</v>
+      </c>
+      <c r="P26">
+        <v>33544</v>
+      </c>
+      <c r="Q26">
+        <v>36541</v>
+      </c>
+      <c r="R26">
+        <v>33552</v>
+      </c>
+      <c r="S26">
+        <v>33557</v>
+      </c>
+      <c r="T26">
+        <v>33546</v>
+      </c>
+      <c r="U26">
+        <v>33535</v>
+      </c>
+      <c r="W26" s="1">
+        <f>AVERAGE(L26:U26)</f>
+        <v>33852.199999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>2216945</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>1357384</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>1448700</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>1997806</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1923830</v>
       </c>
-      <c r="I26">
+      <c r="I27" s="1">
         <f t="shared" si="0"/>
         <v>369801.44556640123</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>22535</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>22527</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>22513</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>22487</v>
       </c>
-      <c r="P26">
+      <c r="P27">
         <v>22543</v>
       </c>
-      <c r="Q26">
+      <c r="Q27">
         <v>22544</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>22534</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>22542</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>22548</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <v>22503</v>
       </c>
-      <c r="W26">
+      <c r="W27" s="1">
         <f t="shared" si="1"/>
         <v>22527.599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>1967057</v>
-      </c>
-      <c r="D27">
-        <v>2066794</v>
-      </c>
-      <c r="E27">
-        <v>1417481</v>
-      </c>
-      <c r="F27">
-        <v>1546399</v>
-      </c>
-      <c r="G27">
-        <v>1946934</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>287531.97220396204</v>
-      </c>
-      <c r="L27">
-        <v>33571</v>
-      </c>
-      <c r="M27">
-        <v>33564</v>
-      </c>
-      <c r="N27">
-        <v>33551</v>
-      </c>
-      <c r="O27">
-        <v>33561</v>
-      </c>
-      <c r="P27">
-        <v>33544</v>
-      </c>
-      <c r="Q27">
-        <v>36541</v>
-      </c>
-      <c r="R27">
-        <v>33552</v>
-      </c>
-      <c r="S27">
-        <v>33557</v>
-      </c>
-      <c r="T27">
-        <v>33546</v>
-      </c>
-      <c r="U27">
-        <v>33535</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>33852.199999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1470205</v>
+      </c>
+      <c r="D28">
+        <v>2079954</v>
+      </c>
+      <c r="E28">
+        <v>2092734</v>
+      </c>
+      <c r="F28">
+        <v>1673512</v>
+      </c>
+      <c r="G28">
+        <v>1628260</v>
+      </c>
+      <c r="I28" s="1">
+        <f>STDEV(C28:G28)</f>
+        <v>281830.45798671228</v>
+      </c>
+      <c r="L28">
+        <v>20537</v>
+      </c>
+      <c r="M28">
+        <v>21520</v>
+      </c>
+      <c r="N28">
+        <v>20514</v>
+      </c>
+      <c r="O28">
+        <v>20506</v>
+      </c>
+      <c r="P28">
+        <v>20505</v>
+      </c>
+      <c r="Q28">
+        <v>20532</v>
+      </c>
+      <c r="R28">
+        <v>20524</v>
+      </c>
+      <c r="S28">
+        <v>20528</v>
+      </c>
+      <c r="T28">
+        <v>20531</v>
+      </c>
+      <c r="U28">
+        <v>22540</v>
+      </c>
+      <c r="W28" s="1">
+        <f>AVERAGE(L28:U28)</f>
+        <v>20823.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1687602</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1599446</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>1855647</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>1692356</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>2109614</v>
       </c>
-      <c r="I28">
+      <c r="I29" s="1">
         <f t="shared" si="0"/>
         <v>201734.64824863378</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>19521</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>19542</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>19516</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>20559</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>19534</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>20517</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>19541</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>19538</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>19533</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>21523</v>
       </c>
-      <c r="W28">
+      <c r="W29" s="1">
         <f t="shared" si="1"/>
         <v>19932.400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>1470205</v>
-      </c>
-      <c r="D29">
-        <v>2079954</v>
-      </c>
-      <c r="E29">
-        <v>2092734</v>
-      </c>
-      <c r="F29">
-        <v>1673512</v>
-      </c>
-      <c r="G29">
-        <v>1628260</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>281830.45798671228</v>
-      </c>
-      <c r="L29">
-        <v>20537</v>
-      </c>
-      <c r="M29">
-        <v>21520</v>
-      </c>
-      <c r="N29">
-        <v>20514</v>
-      </c>
-      <c r="O29">
-        <v>20506</v>
-      </c>
-      <c r="P29">
-        <v>20505</v>
-      </c>
-      <c r="Q29">
-        <v>20532</v>
-      </c>
-      <c r="R29">
-        <v>20524</v>
-      </c>
-      <c r="S29">
-        <v>20528</v>
-      </c>
-      <c r="T29">
-        <v>20531</v>
-      </c>
-      <c r="U29">
-        <v>22540</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>20823.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +1987,7 @@
       <c r="G30">
         <v>1578568</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <f t="shared" si="0"/>
         <v>297422.01509891631</v>
       </c>
@@ -2020,12 +2021,12 @@
       <c r="U30">
         <v>19521</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <f t="shared" si="1"/>
         <v>19724.5</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="G31">
         <v>1397572</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <f t="shared" si="0"/>
         <v>342148.60029379046</v>
       </c>
@@ -2078,12 +2079,12 @@
       <c r="U31">
         <v>21542</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <f t="shared" si="1"/>
         <v>20121.599999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2103,7 @@
       <c r="G32">
         <v>1322746</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <f>STDEV(C32:G32)</f>
         <v>1047448.425411724</v>
       </c>
@@ -2136,12 +2137,12 @@
       <c r="U32">
         <v>25564</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <f t="shared" si="1"/>
         <v>25447.3</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2194,12 +2195,12 @@
       <c r="U33">
         <v>22526</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="1">
         <f t="shared" si="1"/>
         <v>22557.3</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2225,52 +2226,52 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>0.69966464160538588</v>
+      </c>
+      <c r="D38">
+        <f>(G38-5)/(3551-5)</f>
+        <v>0.61477721376198535</v>
+      </c>
+      <c r="G38">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>0.99999999994750077</v>
+      </c>
+      <c r="D39">
+        <f>(G39-5)/(3551-5)</f>
+        <v>0.56063169768753529</v>
+      </c>
+      <c r="G39">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>0.64750757259543601</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <f t="shared" si="2"/>
         <v>0.35053581500282011</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>1248</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>0.99999999994750077</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>0.56063169768753529</v>
-      </c>
-      <c r="G39">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>0.69966464160538588</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>0.61477721376198535</v>
-      </c>
-      <c r="G40">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2300,67 +2301,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0.50817297776420312</v>
+      </c>
+      <c r="D43">
+        <f>(G43-5)/(3551-5)</f>
+        <v>5.4709531866892272E-2</v>
+      </c>
+      <c r="G43">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>0.70894283555991866</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <f t="shared" si="2"/>
         <v>5.3581500282007893E-2</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>0.50817297776420312</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>5.4709531866892272E-2</v>
-      </c>
-      <c r="G44">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>0.49425904162443313</v>
+      </c>
+      <c r="D45">
+        <f>(G45-5)/(3551-5)</f>
+        <v>0.12718556119571348</v>
+      </c>
+      <c r="G45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>0.29879377760964554</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f t="shared" si="2"/>
         <v>9.6728708403835309E-2</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>0.49425904162443313</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>0.12718556119571348</v>
-      </c>
-      <c r="G46">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2390,12 +2391,12 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
